--- a/MainTop/08.10.2024/поставки/вместе.xlsx
+++ b/MainTop/08.10.2024/поставки/вместе.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="г1" sheetId="1" state="visible" r:id="rId2"/>
@@ -530,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -556,18 +556,149 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -582,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -590,8 +721,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -615,13 +761,64 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,41 +826,58 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -675,7 +889,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -691,7 +905,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
@@ -4732,7 +4946,7 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -9907,8 +10121,8 @@
   </sheetPr>
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
